--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-02_beg.xlsx
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frostleaf"]   ...about a creature called the "yeti."
+    <t xml:space="preserve">[name="Frostleaf"]   ...about a creature called the 'yeti.'
 </t>
   </si>
   <si>
